--- a/biology/Zoologie/Horadandia/Horadandia.xlsx
+++ b/biology/Zoologie/Horadandia/Horadandia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Horadandia est un genre de poissons téléostéens d'eau douce ou saumâtre de la famille des Cyprinidae (ordre des Cypriniformes).
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (30 janvier 2024)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (30 janvier 2024) :
 Horadandia atukorali Deraniyagala, 1943 - Sri Lanka
 Horadandia brittani Rema Devi &amp; Menon, 1992 - Inde</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Horadandia Deraniyagala, 1943[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Horadandia Deraniyagala, 1943.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, Horadandia, reprend le terme singhalais pour faux rasbora et fait référence à la proximité avec ces espèces et, en particulier, la forme de la bouche et l'absence de ligne latérale[2]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, Horadandia, reprend le terme singhalais pour faux rasbora et fait référence à la proximité avec ces espèces et, en particulier, la forme de la bouche et l'absence de ligne latérale
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) P. E. P. Deraniyagala, « A new cyprinoid fish from Ceylon », Journal of the Ceylon Branch of the Royal Asiatic Society, vol. 35, no 96,‎ 1943, p. 158-159.</t>
         </is>
